--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>8000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -823,28 +837,31 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,20 +889,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,8 +921,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E17" s="3">
         <v>9300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,78 +1044,85 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1090,45 +1130,51 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1136,28 +1182,31 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1621,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,129 +1683,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>3000</v>
       </c>
       <c r="F44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G44" s="3">
         <v>7700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
         <v>8700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -1723,8 +1828,8 @@
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1738,37 +1843,43 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
         <v>8600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1779,25 +1890,28 @@
         <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
       </c>
       <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,26 +1971,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1883,8 +2003,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E54" s="3">
         <v>18500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,135 +2097,148 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E58" s="3">
         <v>15200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E60" s="3">
         <v>20700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2112,8 +2255,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2121,7 +2267,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2132,8 +2278,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2141,8 +2287,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E66" s="3">
         <v>21300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,7 +2844,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -2657,16 +2856,19 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,37 +3340,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3135,11 +3384,11 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3152,36 +3401,42 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,40 +841,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,23 +909,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +944,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,8 +979,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,87 +1078,94 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1133,48 +1173,54 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1185,28 +1231,31 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1426,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,63 +1708,67 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>8200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1686,136 +1776,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3000</v>
       </c>
       <c r="F44" s="3">
         <v>3000</v>
       </c>
       <c r="G44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H44" s="3">
         <v>7700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1928,7 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -1831,8 +1936,8 @@
       <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1846,45 +1951,51 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -1893,25 +2004,28 @@
         <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,8 +2091,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1985,18 +2105,18 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,8 +2126,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E54" s="3">
         <v>15100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,40 +2228,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,95 +2273,104 @@
         <v>9500</v>
       </c>
       <c r="E58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F58" s="3">
         <v>15200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E60" s="3">
         <v>14500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2235,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2258,8 +2401,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2270,7 +2416,7 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2281,8 +2427,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2290,8 +2436,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E66" s="3">
         <v>14700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,19 +3033,20 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -2859,16 +3058,19 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-6300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3481,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,55 +3586,61 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3404,39 +3653,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -853,32 +867,35 @@
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,26 +929,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -947,8 +967,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,43 +1020,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,34 +1068,37 @@
         <v>-1000</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,78 +1112,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,17 +1198,17 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1176,51 +1216,57 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1234,28 +1280,31 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,52 +1795,56 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E42" s="3">
         <v>8200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,8 +1860,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1779,43 +1869,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1823,115 +1919,124 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3000</v>
       </c>
       <c r="G44" s="3">
         <v>3000</v>
       </c>
       <c r="H44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I44" s="3">
         <v>7700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E46" s="3">
         <v>10200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>100</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -1939,8 +2044,8 @@
       <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1954,51 +2059,57 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
@@ -2007,25 +2118,28 @@
         <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
       <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,8 +2211,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2108,18 +2228,18 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,8 +2249,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E54" s="3">
         <v>17700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,43 +2359,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,101 +2410,110 @@
         <v>9500</v>
       </c>
       <c r="F58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G58" s="3">
         <v>15200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E60" s="3">
         <v>17600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2381,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2404,8 +2547,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2419,7 +2565,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2430,8 +2576,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2439,8 +2585,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E66" s="3">
         <v>17900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3043,13 +3242,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3061,16 +3260,19 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,34 +3524,37 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-6300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,61 +3832,67 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3656,42 +3905,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,32 +884,35 @@
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,29 +949,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -970,8 +990,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1000</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>-1000</v>
       </c>
       <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,17 +1241,17 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1219,54 +1259,60 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1283,28 +1329,31 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,58 +1882,62 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E42" s="3">
         <v>3100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1863,8 +1953,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1872,174 +1962,189 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3000</v>
       </c>
       <c r="H44" s="3">
         <v>3000</v>
       </c>
       <c r="I44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J44" s="3">
         <v>7700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E46" s="3">
         <v>10500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>100</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
@@ -2047,8 +2152,8 @@
       <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2062,57 +2167,63 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
@@ -2121,25 +2232,28 @@
         <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
       </c>
       <c r="K49" s="3">
+        <v>200</v>
+      </c>
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,8 +2331,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2231,18 +2351,18 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2372,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E54" s="3">
         <v>18500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,8 +2490,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2369,42 +2500,45 @@
         <v>3200</v>
       </c>
       <c r="E57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9500</v>
+        <v>6400</v>
       </c>
       <c r="E58" s="3">
         <v>9500</v>
@@ -2413,107 +2547,116 @@
         <v>9500</v>
       </c>
       <c r="G58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H58" s="3">
         <v>15200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
         <v>19100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2527,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2550,8 +2693,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2568,7 +2714,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2579,8 +2725,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2734,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,13 +3444,13 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3263,16 +3462,19 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +3735,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,34 +3748,37 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-5600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>7800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-6300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,67 +4078,73 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -3908,45 +4157,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,32 +901,35 @@
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,32 +969,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>4500</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-3500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
         <v>-1000</v>
       </c>
       <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,95 +1180,102 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-5200</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
@@ -1244,17 +1284,17 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1262,57 +1302,63 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1332,28 +1378,31 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-5800</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-5200</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-5200</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-5200</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,64 +1969,68 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E42" s="3">
         <v>4500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1956,8 +2046,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1965,8 +2055,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1974,40 +2067,43 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2015,122 +2111,131 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3000</v>
       </c>
       <c r="I44" s="3">
         <v>3000</v>
       </c>
       <c r="J44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E46" s="3">
         <v>12200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2140,14 +2245,14 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>100</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2155,8 +2260,8 @@
       <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>200</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2170,63 +2275,69 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
@@ -2235,25 +2346,28 @@
         <v>1000</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
       </c>
       <c r="L49" s="3">
+        <v>200</v>
+      </c>
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,8 +2451,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2354,18 +2474,18 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2375,8 +2495,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,57 +2621,61 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
         <v>3200</v>
       </c>
       <c r="F57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>9500</v>
       </c>
       <c r="F58" s="3">
         <v>9500</v>
@@ -2550,113 +2684,122 @@
         <v>9500</v>
       </c>
       <c r="H58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I58" s="3">
         <v>15200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2673,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2696,13 +2839,16 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>4800</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2717,7 +2863,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -2728,8 +2874,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -2737,8 +2883,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E66" s="3">
         <v>13000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-5200</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3447,13 +3646,13 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -3465,16 +3664,19 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,13 +3956,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3751,34 +3972,37 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-6300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,73 +4324,79 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4160,48 +4409,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>12100</v>
       </c>
       <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9700</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,32 +918,35 @@
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,35 +989,38 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1000</v>
       </c>
       <c r="G18" s="3">
         <v>-1000</v>
       </c>
       <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,104 +1214,111 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
@@ -1287,17 +1327,17 @@
         <v>600</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1305,60 +1345,66 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,28 +1427,31 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,70 +2056,74 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E42" s="3">
         <v>4400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,8 +2139,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2058,8 +2148,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2070,172 +2163,184 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3000</v>
       </c>
       <c r="J44" s="3">
         <v>3000</v>
       </c>
       <c r="K44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L44" s="3">
         <v>7700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E46" s="3">
         <v>25200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,14 +2353,14 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>100</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -2263,8 +2368,8 @@
       <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>200</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2278,69 +2383,75 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
@@ -2349,25 +2460,28 @@
         <v>1000</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
       <c r="M49" s="3">
+        <v>200</v>
+      </c>
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,41 +2571,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2498,8 +2618,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E54" s="3">
         <v>32000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,63 +2752,67 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3200</v>
       </c>
       <c r="F57" s="3">
         <v>3200</v>
       </c>
       <c r="G57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E58" s="3">
         <v>6100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9500</v>
       </c>
       <c r="G58" s="3">
         <v>9500</v>
@@ -2687,119 +2821,128 @@
         <v>9500</v>
       </c>
       <c r="I58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J58" s="3">
         <v>15200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E60" s="3">
         <v>13800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2819,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2842,16 +2985,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>4800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -2866,7 +3012,7 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2877,8 +3023,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -2886,8 +3032,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E66" s="3">
         <v>19100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E76" s="3">
         <v>13000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,13 +3829,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3649,13 +3848,13 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3667,16 +3866,19 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,16 +4177,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3975,34 +4196,37 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,79 +4570,85 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>18500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4412,51 +4661,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>12100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -4183,11 +4183,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="K91" s="3">
         <v>-5600</v>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
       <c r="F8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>500</v>
-      </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>6800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -921,32 +935,35 @@
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,38 +1009,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
-        <v>700</v>
-      </c>
       <c r="F14" s="3">
+        <v>500</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1059,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
-        <v>4500</v>
-      </c>
       <c r="F17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
-        <v>1500</v>
-      </c>
       <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
-        <v>-3500</v>
-      </c>
       <c r="F18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,113 +1248,120 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>1300</v>
-      </c>
       <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>500</v>
-      </c>
       <c r="H21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
       <c r="F22" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
@@ -1330,17 +1370,17 @@
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1348,63 +1388,69 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5800</v>
-      </c>
       <c r="F23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
       <c r="H23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1430,28 +1476,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-5800</v>
-      </c>
       <c r="F26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
       <c r="H26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
       <c r="H27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,31 +1696,34 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-2600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-2600</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>1900</v>
-      </c>
       <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,76 +2143,80 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E41" s="3">
         <v>12200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E42" s="3">
         <v>11600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,8 +2232,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2151,8 +2241,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2166,40 +2259,43 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2207,140 +2303,149 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3000</v>
       </c>
       <c r="K44" s="3">
         <v>3000</v>
       </c>
       <c r="L44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M44" s="3">
         <v>7700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
-        <v>2700</v>
-      </c>
       <c r="F45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E46" s="3">
         <v>25400</v>
       </c>
-      <c r="E46" s="3">
-        <v>25200</v>
-      </c>
       <c r="F46" s="3">
+        <v>31100</v>
+      </c>
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,14 +2461,14 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>100</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2371,8 +2476,8 @@
       <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>200</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2386,75 +2491,81 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
-        <v>6100</v>
-      </c>
       <c r="F48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
-        <v>700</v>
-      </c>
       <c r="F49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>1000</v>
@@ -2463,25 +2574,28 @@
         <v>1000</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
       <c r="N49" s="3">
+        <v>200</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,44 +2691,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2621,8 +2741,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E54" s="3">
         <v>28400</v>
       </c>
-      <c r="E54" s="3">
-        <v>32000</v>
-      </c>
       <c r="F54" s="3">
+        <v>37900</v>
+      </c>
+      <c r="G54" s="3">
         <v>13800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,69 +2883,73 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
-        <v>3100</v>
-      </c>
       <c r="F57" s="3">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>3200</v>
       </c>
       <c r="H57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>5800</v>
       </c>
-      <c r="E58" s="3">
-        <v>6100</v>
-      </c>
       <c r="F58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G58" s="3">
         <v>6400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9500</v>
       </c>
       <c r="H58" s="3">
         <v>9500</v>
@@ -2824,125 +2958,134 @@
         <v>9500</v>
       </c>
       <c r="J58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K58" s="3">
         <v>15200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
-        <v>4700</v>
-      </c>
       <c r="F59" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
-        <v>13800</v>
-      </c>
       <c r="F60" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G60" s="3">
         <v>12700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2965,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2988,19 +3131,22 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3015,7 +3161,7 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3026,8 +3172,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3035,8 +3181,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E66" s="3">
         <v>14900</v>
       </c>
-      <c r="E66" s="3">
-        <v>19100</v>
-      </c>
       <c r="F66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G66" s="3">
         <v>13000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E76" s="3">
         <v>13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,34 +4028,35 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>200</v>
-      </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -3869,16 +4068,19 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>1400</v>
-      </c>
       <c r="F89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,8 +4398,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4196,37 +4417,40 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-7500</v>
-      </c>
       <c r="F94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G94" s="3">
         <v>5800</v>
       </c>
-      <c r="G94" s="3">
-        <v>7800</v>
-      </c>
       <c r="H94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-6300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,85 +4816,91 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="E100" s="3">
-        <v>18500</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-700</v>
-      </c>
       <c r="H100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-300</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4664,54 +4913,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
-        <v>12100</v>
-      </c>
       <c r="F102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>5400</v>
-      </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PETZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>PETZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,32 +952,35 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1029,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,32 +1041,32 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1062,8 +1082,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>6100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,122 +1282,129 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1200</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>700</v>
       </c>
       <c r="F21" s="3">
-        <v>-3600</v>
+        <v>-1200</v>
       </c>
       <c r="G21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>2400</v>
-      </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
@@ -1373,17 +1413,17 @@
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1391,71 +1431,77 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1479,28 +1525,31 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,34 +1757,37 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2600</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2600</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-900</v>
       </c>
       <c r="H33" s="3">
         <v>-900</v>
       </c>
       <c r="I33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-900</v>
       </c>
       <c r="H35" s="3">
         <v>-900</v>
       </c>
       <c r="I35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,82 +2230,86 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>21900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E42" s="3">
         <v>9900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2235,8 +2325,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2244,8 +2334,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2262,40 +2355,43 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2306,46 +2402,49 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3000</v>
       </c>
       <c r="L44" s="3">
         <v>3000</v>
       </c>
       <c r="M44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N44" s="3">
         <v>7700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2353,99 +2452,105 @@
         <v>2000</v>
       </c>
       <c r="E45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2464,14 +2569,14 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>100</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2479,8 +2584,8 @@
       <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>200</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2494,58 +2599,64 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2553,22 +2664,22 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1000</v>
       </c>
       <c r="K49" s="3">
         <v>1000</v>
@@ -2577,25 +2688,28 @@
         <v>1000</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
       </c>
       <c r="O49" s="3">
+        <v>200</v>
+      </c>
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,23 +2811,26 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2720,21 +2840,21 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2744,8 +2864,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E54" s="3">
         <v>36500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,8 +3014,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2893,49 +3024,52 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3200</v>
       </c>
       <c r="H57" s="3">
         <v>3200</v>
       </c>
       <c r="I57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,16 +3077,16 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>5800</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>5800</v>
       </c>
       <c r="G58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H58" s="3">
         <v>6400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>9500</v>
       </c>
       <c r="I58" s="3">
         <v>9500</v>
@@ -2961,131 +3095,140 @@
         <v>9500</v>
       </c>
       <c r="K58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L58" s="3">
         <v>15200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>13800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
         <v>14700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3111,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3134,22 +3277,25 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -3164,7 +3310,7 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3175,8 +3321,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3184,8 +3330,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E66" s="3">
         <v>15800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E76" s="3">
         <v>20700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-900</v>
       </c>
       <c r="H81" s="3">
         <v>-900</v>
       </c>
       <c r="I81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,37 +4227,38 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
-      </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>-400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4071,16 +4270,19 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-2100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,8 +4619,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4426,31 +4647,34 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-6100</v>
+        <v>300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1600</v>
+        <v>-4400</v>
       </c>
       <c r="G94" s="3">
-        <v>5800</v>
+        <v>-5000</v>
       </c>
       <c r="H94" s="3">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4500</v>
+        <v>3200</v>
       </c>
       <c r="J94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-6300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,8 +4852,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4669,8 +4903,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,91 +5062,97 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>6100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="F100" s="3">
-        <v>18100</v>
+        <v>-18100</v>
       </c>
       <c r="G100" s="3">
-        <v>-400</v>
+        <v>18700</v>
       </c>
       <c r="H100" s="3">
-        <v>-600</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>-10100</v>
       </c>
       <c r="J100" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>1000</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F101" s="3">
-        <v>-200</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4916,57 +5165,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>3600</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-5900</v>
+        <v>-9100</v>
       </c>
       <c r="F102" s="3">
-        <v>12800</v>
+        <v>-18600</v>
       </c>
       <c r="G102" s="3">
-        <v>600</v>
+        <v>12500</v>
       </c>
       <c r="H102" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I102" s="3">
-        <v>-5100</v>
+        <v>-3600</v>
       </c>
       <c r="J102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
